--- a/ofc/estimates/kurthali sadak/kurthali sadak.xlsx
+++ b/ofc/estimates/kurthali sadak/kurthali sadak.xlsx
@@ -2,29 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\kurthali sadak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\kurthali sadak\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="final" sheetId="10" r:id="rId2"/>
+    <sheet name="final" sheetId="10" state="hidden" r:id="rId2"/>
     <sheet name="WCR" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="14" r:id="rId4"/>
-    <sheet name="ग्रावेल" sheetId="15" r:id="rId5"/>
-    <sheet name="with dhalaan" sheetId="19" r:id="rId6"/>
-    <sheet name="Sheet4 (2)" sheetId="17" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="14" state="hidden" r:id="rId4"/>
+    <sheet name="ग्रावेल" sheetId="15" state="hidden" r:id="rId5"/>
+    <sheet name="with dhalaan" sheetId="19" state="hidden" r:id="rId6"/>
+    <sheet name="kurthali final" sheetId="17" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
@@ -43,16 +44,17 @@
     <definedName name="description_5">[1]Abstract!$B$171</definedName>
     <definedName name="description_6">[3]Abstract!$B$172</definedName>
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
+    <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Estimate!$A$1:$K$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">final!$A$1:$K$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Sheet4 (2)'!$A$1:$K$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'kurthali final'!$A$1:$K$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">final!$1:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Sheet4 (2)'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'kurthali final'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="99">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -339,9 +341,6 @@
     <t>Providing and Laying Reinforced cement concrete NP3 Flush jointed pipe for culverts including fixing with cement mortar 1:2 as per Drawing and Technical Specifications., 450 mm  internal dia.</t>
   </si>
   <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>Date:2081/06/08</t>
   </si>
   <si>
@@ -360,23 +359,26 @@
     <t>-For wall</t>
   </si>
   <si>
-    <t>Provisional sum for unforeseen work</t>
-  </si>
-  <si>
     <t>Unit Weight (kg/m)</t>
   </si>
   <si>
     <t>Total Weight (Kg)</t>
   </si>
+  <si>
+    <t>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:4 in Foundation complete as per Drawing and Technical Specifications.</t>
+  </si>
+  <si>
+    <t>Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -577,7 +579,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -587,7 +589,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,7 +600,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,7 +613,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -627,7 +629,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -636,7 +638,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,7 +650,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,7 +675,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,7 +702,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -711,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -747,10 +749,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -774,7 +776,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,7 +788,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -801,7 +803,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,20 +828,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -854,13 +864,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,21 +909,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -907,16 +919,6 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1184,6 +1186,65 @@
         <row r="61">
           <cell r="B61" t="str">
             <v>Providing and laying  granular sub-base   on prepared surface, mixing  at OMC, and compacting  to achieve the desired density, complete as per Drawing and Technical Specifications., By Mechanical means</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="299">
+          <cell r="B299" t="str">
+            <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:4 in Foundation complete as per Drawing and Technical Specifications.</v>
           </cell>
         </row>
       </sheetData>
@@ -1480,135 +1541,135 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="117" t="s">
+      <c r="H7" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="156" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -1668,7 +1729,7 @@
       <c r="R9" s="36"/>
       <c r="S9" s="36"/>
     </row>
-    <row r="10" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="61" t="s">
         <v>55</v>
@@ -1702,7 +1763,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="61" t="s">
         <v>53</v>
@@ -1738,7 +1799,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="61" t="s">
         <v>57</v>
@@ -1777,7 +1838,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="60" t="s">
         <v>51</v>
@@ -1809,7 +1870,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="60" t="s">
         <v>44</v>
@@ -1834,7 +1895,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="35"/>
       <c r="C15" s="30"/>
@@ -1854,7 +1915,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2</v>
       </c>
@@ -1871,7 +1932,7 @@
       <c r="J16" s="50"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="61" t="s">
         <v>55</v>
@@ -1899,7 +1960,7 @@
       <c r="J17" s="50"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="61" t="s">
         <v>53</v>
@@ -1928,7 +1989,7 @@
       <c r="J18" s="50"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="61" t="s">
         <v>57</v>
@@ -1964,7 +2025,7 @@
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="60" t="s">
         <v>51</v>
@@ -1989,7 +2050,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="60" t="s">
         <v>44</v>
@@ -2007,7 +2068,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="35"/>
       <c r="C22" s="30"/>
@@ -2027,7 +2088,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
     </row>
-    <row r="23" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>3</v>
       </c>
@@ -2051,7 +2112,7 @@
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="61" t="s">
         <v>57</v>
@@ -2079,7 +2140,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="61" t="s">
         <v>58</v>
@@ -2106,7 +2167,7 @@
       <c r="J25" s="50"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="61" t="s">
         <v>53</v>
@@ -2135,7 +2196,7 @@
       <c r="J26" s="50"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="60" t="s">
         <v>51</v>
@@ -2160,7 +2221,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="60" t="s">
         <v>44</v>
@@ -2178,7 +2239,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="35"/>
       <c r="C29" s="30"/>
@@ -2198,7 +2259,7 @@
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
     </row>
-    <row r="30" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>4</v>
       </c>
@@ -2223,7 +2284,7 @@
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="62" t="s">
         <v>53</v>
@@ -2258,7 +2319,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="62" t="s">
         <v>54</v>
@@ -2292,7 +2353,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
     </row>
-    <row r="33" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="60" t="s">
         <v>51</v>
@@ -2324,7 +2385,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="60" t="s">
         <v>44</v>
@@ -2349,7 +2410,7 @@
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="60"/>
       <c r="C35" s="5"/>
@@ -2369,7 +2430,7 @@
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
     </row>
-    <row r="36" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>5</v>
       </c>
@@ -2394,7 +2455,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="60" t="s">
         <v>57</v>
@@ -2428,7 +2489,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="60" t="s">
         <v>51</v>
@@ -2460,7 +2521,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="60" t="s">
         <v>44</v>
@@ -2485,7 +2546,7 @@
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="60"/>
       <c r="C40" s="5"/>
@@ -2505,7 +2566,7 @@
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
     </row>
-    <row r="41" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>6</v>
       </c>
@@ -2530,7 +2591,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="60" t="str">
         <f>B17</f>
@@ -2567,7 +2628,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="60" t="s">
         <v>51</v>
@@ -2599,7 +2660,7 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="60" t="s">
         <v>44</v>
@@ -2624,7 +2685,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="60"/>
       <c r="C45" s="5"/>
@@ -2644,7 +2705,7 @@
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>7</v>
       </c>
@@ -2674,7 +2735,7 @@
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="62" t="s">
         <v>60</v>
@@ -2711,7 +2772,7 @@
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="62" t="s">
         <v>61</v>
@@ -2748,7 +2809,7 @@
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
     </row>
-    <row r="49" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="60" t="s">
         <v>51</v>
@@ -2780,7 +2841,7 @@
       <c r="R49" s="36"/>
       <c r="S49" s="36"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="60" t="s">
         <v>44</v>
@@ -2805,7 +2866,7 @@
       <c r="R50" s="36"/>
       <c r="S50" s="36"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="46"/>
       <c r="C51" s="30"/>
@@ -2825,7 +2886,7 @@
       <c r="R51" s="36"/>
       <c r="S51" s="36"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>8</v>
       </c>
@@ -2842,7 +2903,7 @@
       <c r="J52" s="50"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>8.1</v>
       </c>
@@ -2859,7 +2920,7 @@
       <c r="J53" s="50"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="5" t="s">
         <v>48</v>
@@ -2886,7 +2947,7 @@
       <c r="J54" s="50"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="60" t="s">
         <v>51</v>
@@ -2911,7 +2972,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="60" t="s">
         <v>44</v>
@@ -2929,7 +2990,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>8.1999999999999993</v>
       </c>
@@ -2946,7 +3007,7 @@
       <c r="J57" s="50"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="5" t="s">
         <v>48</v>
@@ -2973,7 +3034,7 @@
       <c r="J58" s="50"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="60" t="s">
         <v>51</v>
@@ -3002,7 +3063,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="60" t="s">
         <v>44</v>
@@ -3020,7 +3081,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="5"/>
       <c r="C61" s="48"/>
@@ -3033,7 +3094,7 @@
       <c r="J61" s="56"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>8.3000000000000007</v>
       </c>
@@ -3050,7 +3111,7 @@
       <c r="J62" s="56"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="58" t="str">
         <f>description_247</f>
@@ -3074,7 +3135,7 @@
       <c r="J63" s="59"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="60" t="s">
         <v>51</v>
@@ -3099,7 +3160,7 @@
       </c>
       <c r="K64" s="18"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="60" t="s">
         <v>44</v>
@@ -3117,7 +3178,7 @@
       </c>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
       <c r="B66" s="46"/>
       <c r="C66" s="30"/>
@@ -3137,7 +3198,7 @@
       <c r="R66" s="36"/>
       <c r="S66" s="36"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
       <c r="B67" s="46"/>
       <c r="C67" s="30"/>
@@ -3157,7 +3218,7 @@
       <c r="R67" s="36"/>
       <c r="S67" s="36"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
       <c r="B68" s="46"/>
       <c r="C68" s="30"/>
@@ -3177,7 +3238,7 @@
       <c r="R68" s="36"/>
       <c r="S68" s="36"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>9</v>
       </c>
@@ -3213,7 +3274,7 @@
       <c r="R69" s="36"/>
       <c r="S69" s="36"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
       <c r="B70" s="35"/>
       <c r="C70" s="30"/>
@@ -3233,7 +3294,7 @@
       <c r="R70" s="36"/>
       <c r="S70" s="36"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -3251,15 +3312,15 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="73" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="108">
+      <c r="C73" s="114">
         <f>J71</f>
         <v>1194331.7948368895</v>
       </c>
-      <c r="D73" s="109"/>
+      <c r="D73" s="115"/>
       <c r="E73" s="16">
         <v>100</v>
       </c>
@@ -3270,87 +3331,87 @@
       <c r="J73" s="23"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="110">
+      <c r="C74" s="121">
         <v>1000000</v>
       </c>
-      <c r="D74" s="111"/>
+      <c r="D74" s="122"/>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="110">
+      <c r="C75" s="121">
         <f>C74-C77-C78</f>
         <v>950000</v>
       </c>
-      <c r="D75" s="111"/>
+      <c r="D75" s="122"/>
       <c r="E75" s="16">
         <f>C75/C73*100</f>
         <v>79.542385466656867</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="107">
+      <c r="C76" s="120">
         <f>C73-C75</f>
         <v>244331.79483688949</v>
       </c>
-      <c r="D76" s="107"/>
+      <c r="D76" s="120"/>
       <c r="E76" s="16">
         <f>100-E75</f>
         <v>20.457614533343133</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="108">
+      <c r="C77" s="114">
         <f>C74*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D77" s="109"/>
+      <c r="D77" s="115"/>
       <c r="E77" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="108">
+      <c r="C78" s="114">
         <f>C74*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D78" s="109"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3369,135 +3430,135 @@
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="117" t="s">
+      <c r="H7" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3532,7 +3593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -3553,7 +3614,7 @@
       <c r="R9" s="68"/>
       <c r="S9" s="68"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="60" t="s">
         <v>67</v>
@@ -3587,7 +3648,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="60" t="s">
         <v>53</v>
@@ -3620,7 +3681,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="60" t="s">
         <v>51</v>
@@ -3652,7 +3713,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="60" t="s">
         <v>44</v>
@@ -3677,7 +3738,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="35"/>
       <c r="C14" s="30"/>
@@ -3697,7 +3758,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2</v>
       </c>
@@ -3721,7 +3782,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="60" t="str">
         <f>B11</f>
@@ -3756,7 +3817,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="60" t="s">
         <v>51</v>
@@ -3781,7 +3842,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="60" t="s">
         <v>44</v>
@@ -3799,7 +3860,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="60"/>
       <c r="C19" s="48"/>
@@ -3812,7 +3873,7 @@
       <c r="J19" s="55"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -3836,7 +3897,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="60" t="str">
         <f>B16</f>
@@ -3870,7 +3931,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="60" t="s">
         <v>51</v>
@@ -3895,7 +3956,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="60" t="s">
         <v>44</v>
@@ -3913,7 +3974,7 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="60"/>
       <c r="C24" s="48"/>
@@ -3926,7 +3987,7 @@
       <c r="J24" s="55"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>4</v>
       </c>
@@ -3958,7 +4019,7 @@
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="60" t="s">
         <v>68</v>
@@ -3994,7 +4055,7 @@
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="60" t="s">
         <v>51</v>
@@ -4019,7 +4080,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="60" t="s">
         <v>44</v>
@@ -4037,7 +4098,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="60"/>
       <c r="C29" s="48"/>
@@ -4050,7 +4111,7 @@
       <c r="J29" s="55"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>5</v>
       </c>
@@ -4074,7 +4135,7 @@
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="60" t="str">
         <f>B26</f>
@@ -4109,7 +4170,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="60" t="s">
         <v>51</v>
@@ -4134,7 +4195,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="60" t="s">
         <v>44</v>
@@ -4152,7 +4213,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="60"/>
       <c r="C34" s="48"/>
@@ -4165,7 +4226,7 @@
       <c r="J34" s="55"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>6</v>
       </c>
@@ -4189,7 +4250,7 @@
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="60" t="str">
         <f>B31</f>
@@ -4224,7 +4285,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="60" t="s">
         <v>71</v>
@@ -4258,7 +4319,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="60" t="s">
         <v>51</v>
@@ -4283,7 +4344,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="60" t="s">
         <v>44</v>
@@ -4301,7 +4362,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="60"/>
       <c r="C40" s="48"/>
@@ -4314,7 +4375,7 @@
       <c r="J40" s="55"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:19" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>5</v>
       </c>
@@ -4339,7 +4400,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="60" t="s">
         <v>70</v>
@@ -4368,7 +4429,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="60" t="s">
         <v>51</v>
@@ -4400,7 +4461,7 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
     </row>
-    <row r="44" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="60" t="s">
         <v>44</v>
@@ -4425,7 +4486,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
-    <row r="45" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="60"/>
       <c r="C45" s="5"/>
@@ -4445,7 +4506,7 @@
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>7</v>
       </c>
@@ -4469,7 +4530,7 @@
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="60" t="s">
         <v>69</v>
@@ -4505,7 +4566,7 @@
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="60" t="s">
         <v>51</v>
@@ -4537,7 +4598,7 @@
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="60" t="s">
         <v>44</v>
@@ -4562,7 +4623,7 @@
       <c r="R49" s="36"/>
       <c r="S49" s="36"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="60"/>
       <c r="C50" s="5"/>
@@ -4582,7 +4643,7 @@
       <c r="R50" s="36"/>
       <c r="S50" s="36"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>8</v>
       </c>
@@ -4618,7 +4679,7 @@
       <c r="R51" s="36"/>
       <c r="S51" s="36"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
       <c r="B52" s="35"/>
       <c r="C52" s="30"/>
@@ -4638,7 +4699,7 @@
       <c r="R52" s="36"/>
       <c r="S52" s="36"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="28" t="s">
         <v>17</v>
@@ -4656,15 +4717,15 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="108">
+      <c r="C55" s="114">
         <f>J53</f>
         <v>563311.92829411826</v>
       </c>
-      <c r="D55" s="109"/>
+      <c r="D55" s="115"/>
       <c r="E55" s="16">
         <v>100</v>
       </c>
@@ -4675,77 +4736,84 @@
       <c r="J55" s="23"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="73"/>
       <c r="B56" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="110">
+      <c r="C56" s="121">
         <v>500000</v>
       </c>
-      <c r="D56" s="111"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="73"/>
       <c r="B57" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="110">
+      <c r="C57" s="121">
         <f>C56-C59-C60</f>
         <v>475000</v>
       </c>
-      <c r="D57" s="111"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="16">
         <f>C57/C55*100</f>
         <v>84.322730647377924</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="73"/>
       <c r="B58" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="107">
+      <c r="C58" s="120">
         <f>C55-C57</f>
         <v>88311.928294118261</v>
       </c>
-      <c r="D58" s="107"/>
+      <c r="D58" s="120"/>
       <c r="E58" s="16">
         <f>100-E57</f>
         <v>15.677269352622076</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="108">
+      <c r="C59" s="114">
         <f>C56*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D59" s="109"/>
+      <c r="D59" s="115"/>
       <c r="E59" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="73"/>
       <c r="B60" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="108">
+      <c r="C60" s="114">
         <f>C56*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D60" s="109"/>
+      <c r="D60" s="115"/>
       <c r="E60" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A7:F7"/>
@@ -4754,13 +4822,6 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4785,106 +4846,106 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="129" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="130" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="126" t="e">
+      <c r="C6" s="123" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="127"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4892,90 +4953,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="126" t="e">
+      <c r="J6" s="123" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="127"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="124"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="I7" s="122" t="s">
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="I7" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="str">
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="str">
         <f>Estimate!A6</f>
         <v>Project:- बेन्डोल हाईट सडक निर्माण</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="I8" s="123" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="I8" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="124" t="str">
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="133" t="str">
         <f>Estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="I9" s="123" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="I9" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="119" t="s">
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125" t="s">
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="119" t="s">
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="129" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="128"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
@@ -4994,10 +5055,10 @@
       <c r="I12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="119"/>
-      <c r="K12" s="120"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <f>Estimate!A9</f>
         <v>1</v>
@@ -5040,7 +5101,7 @@
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="45" t="e">
         <f>Estimate!#REF!</f>
@@ -5062,7 +5123,7 @@
       <c r="J14" s="39"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="16"/>
@@ -5075,7 +5136,7 @@
       <c r="J15" s="39"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <f>Estimate!A69</f>
         <v>9</v>
@@ -5118,7 +5179,7 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="16"/>
@@ -5131,7 +5192,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
@@ -5157,13 +5218,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -5177,6 +5231,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5198,130 +5259,130 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +5417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>1</v>
       </c>
@@ -5373,7 +5434,7 @@
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="77" t="s">
         <v>67</v>
@@ -5407,7 +5468,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="77" t="s">
         <v>53</v>
@@ -5441,7 +5502,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="77" t="s">
         <v>51</v>
@@ -5473,7 +5534,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="77" t="s">
         <v>44</v>
@@ -5498,7 +5559,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="35"/>
       <c r="C14" s="30"/>
@@ -5518,7 +5579,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2</v>
       </c>
@@ -5542,7 +5603,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="77" t="str">
         <f>B11</f>
@@ -5577,7 +5638,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="80"/>
       <c r="B17" s="77" t="s">
         <v>51</v>
@@ -5602,7 +5663,7 @@
       </c>
       <c r="K17" s="76"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="80"/>
       <c r="B18" s="77" t="s">
         <v>44</v>
@@ -5620,7 +5681,7 @@
       </c>
       <c r="K18" s="76"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="80"/>
       <c r="B19" s="77"/>
       <c r="C19" s="82"/>
@@ -5633,7 +5694,7 @@
       <c r="J19" s="85"/>
       <c r="K19" s="76"/>
     </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -5657,7 +5718,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="77" t="str">
         <f>B16</f>
@@ -5691,7 +5752,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
       <c r="B22" s="77" t="s">
         <v>51</v>
@@ -5716,7 +5777,7 @@
       </c>
       <c r="K22" s="76"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="77" t="s">
         <v>44</v>
@@ -5734,7 +5795,7 @@
       </c>
       <c r="K23" s="76"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
       <c r="B24" s="77"/>
       <c r="C24" s="82"/>
@@ -5747,7 +5808,7 @@
       <c r="J24" s="85"/>
       <c r="K24" s="76"/>
     </row>
-    <row r="25" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>5</v>
       </c>
@@ -5771,7 +5832,7 @@
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
     </row>
-    <row r="26" spans="1:19" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="77" t="s">
         <v>82</v>
@@ -5798,7 +5859,7 @@
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="77" t="s">
         <v>51</v>
@@ -5823,7 +5884,7 @@
       </c>
       <c r="K27" s="76"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="77" t="s">
         <v>44</v>
@@ -5841,7 +5902,7 @@
       </c>
       <c r="K28" s="76"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="77"/>
       <c r="C29" s="82"/>
@@ -5854,7 +5915,7 @@
       <c r="J29" s="85"/>
       <c r="K29" s="76"/>
     </row>
-    <row r="30" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>6</v>
       </c>
@@ -5878,7 +5939,7 @@
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="77" t="str">
         <f>B26</f>
@@ -5913,7 +5974,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="77" t="s">
         <v>71</v>
@@ -5953,7 +6014,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="77" t="s">
         <v>51</v>
@@ -5990,7 +6051,7 @@
         <v>0.58473026516306004</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="80"/>
       <c r="B34" s="77" t="s">
         <v>44</v>
@@ -6008,7 +6069,7 @@
       </c>
       <c r="K34" s="76"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="77"/>
       <c r="C35" s="82"/>
@@ -6021,7 +6082,7 @@
       <c r="J35" s="85"/>
       <c r="K35" s="76"/>
     </row>
-    <row r="36" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>7</v>
       </c>
@@ -6045,7 +6106,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="77" t="s">
         <v>69</v>
@@ -6084,7 +6145,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="77" t="s">
         <v>51</v>
@@ -6119,7 +6180,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="77" t="s">
         <v>44</v>
@@ -6144,7 +6205,7 @@
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="77"/>
       <c r="C40" s="76"/>
@@ -6164,7 +6225,7 @@
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>8</v>
       </c>
@@ -6200,7 +6261,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="35"/>
       <c r="C42" s="30"/>
@@ -6220,7 +6281,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="80"/>
       <c r="B43" s="87" t="s">
         <v>17</v>
@@ -6238,7 +6299,7 @@
       </c>
       <c r="K43" s="76"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="89"/>
       <c r="B44" s="90"/>
       <c r="C44" s="90"/>
@@ -6251,16 +6312,16 @@
       <c r="J44" s="89"/>
       <c r="K44" s="90"/>
     </row>
-    <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="91"/>
       <c r="B45" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="133">
+      <c r="C45" s="137">
         <f>J43</f>
         <v>567994.51733539614</v>
       </c>
-      <c r="D45" s="133"/>
+      <c r="D45" s="137"/>
       <c r="E45" s="79">
         <v>100</v>
       </c>
@@ -6271,15 +6332,15 @@
       <c r="J45" s="95"/>
       <c r="K45" s="96"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="97"/>
       <c r="B46" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="134">
+      <c r="C46" s="138">
         <v>500000</v>
       </c>
-      <c r="D46" s="134"/>
+      <c r="D46" s="138"/>
       <c r="E46" s="79"/>
       <c r="F46" s="90"/>
       <c r="G46" s="89"/>
@@ -6288,16 +6349,16 @@
       <c r="J46" s="89"/>
       <c r="K46" s="90"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="97"/>
       <c r="B47" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="134">
+      <c r="C47" s="138">
         <f>C46-C49-C50</f>
         <v>475000</v>
       </c>
-      <c r="D47" s="134"/>
+      <c r="D47" s="138"/>
       <c r="E47" s="79">
         <f>C47/C45*100</f>
         <v>83.627567785045414</v>
@@ -6309,16 +6370,16 @@
       <c r="J47" s="89"/>
       <c r="K47" s="90"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="97"/>
       <c r="B48" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="133">
+      <c r="C48" s="137">
         <f>C45-C47</f>
         <v>92994.517335396144</v>
       </c>
-      <c r="D48" s="133"/>
+      <c r="D48" s="137"/>
       <c r="E48" s="79">
         <f>100-E47</f>
         <v>16.372432214954586</v>
@@ -6330,16 +6391,16 @@
       <c r="J48" s="89"/>
       <c r="K48" s="90"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="97"/>
       <c r="B49" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="133">
+      <c r="C49" s="137">
         <f>C46*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D49" s="133"/>
+      <c r="D49" s="137"/>
       <c r="E49" s="79">
         <v>3</v>
       </c>
@@ -6350,16 +6411,16 @@
       <c r="J49" s="89"/>
       <c r="K49" s="90"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="97"/>
       <c r="B50" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="133">
+      <c r="C50" s="137">
         <f>C46*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D50" s="133"/>
+      <c r="D50" s="137"/>
       <c r="E50" s="79">
         <v>2</v>
       </c>
@@ -6370,7 +6431,7 @@
       <c r="J50" s="89"/>
       <c r="K50" s="90"/>
     </row>
-    <row r="51" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="98"/>
       <c r="B51" s="98"/>
       <c r="C51" s="98"/>
@@ -6383,62 +6444,62 @@
       <c r="J51" s="98"/>
       <c r="K51" s="98"/>
     </row>
-    <row r="52" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A7:F7"/>
@@ -6470,130 +6531,130 @@
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -6628,7 +6689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>1</v>
       </c>
@@ -6645,7 +6706,7 @@
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="77" t="s">
         <v>67</v>
@@ -6679,7 +6740,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="77" t="s">
         <v>53</v>
@@ -6713,7 +6774,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="77" t="s">
         <v>51</v>
@@ -6745,7 +6806,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="77" t="s">
         <v>44</v>
@@ -6770,7 +6831,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="35"/>
       <c r="C14" s="30"/>
@@ -6790,7 +6851,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2</v>
       </c>
@@ -6814,7 +6875,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="77" t="str">
         <f>B11</f>
@@ -6849,7 +6910,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="80"/>
       <c r="B17" s="77" t="s">
         <v>51</v>
@@ -6874,7 +6935,7 @@
       </c>
       <c r="K17" s="76"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="80"/>
       <c r="B18" s="77" t="s">
         <v>44</v>
@@ -6892,7 +6953,7 @@
       </c>
       <c r="K18" s="76"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="80"/>
       <c r="B19" s="77"/>
       <c r="C19" s="82"/>
@@ -6905,7 +6966,7 @@
       <c r="J19" s="85"/>
       <c r="K19" s="76"/>
     </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>3</v>
       </c>
@@ -6929,7 +6990,7 @@
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="77" t="str">
         <f>B16</f>
@@ -6963,7 +7024,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
       <c r="B22" s="77" t="s">
         <v>51</v>
@@ -6988,7 +7049,7 @@
       </c>
       <c r="K22" s="76"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="77" t="s">
         <v>44</v>
@@ -7006,7 +7067,7 @@
       </c>
       <c r="K23" s="76"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
       <c r="B24" s="77"/>
       <c r="C24" s="82"/>
@@ -7019,7 +7080,7 @@
       <c r="J24" s="85"/>
       <c r="K24" s="76"/>
     </row>
-    <row r="25" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>5</v>
       </c>
@@ -7043,7 +7104,7 @@
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
     </row>
-    <row r="26" spans="1:19" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="77" t="s">
         <v>82</v>
@@ -7070,7 +7131,7 @@
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="77" t="s">
         <v>51</v>
@@ -7095,7 +7156,7 @@
       </c>
       <c r="K27" s="76"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="77" t="s">
         <v>44</v>
@@ -7113,7 +7174,7 @@
       </c>
       <c r="K28" s="76"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="77"/>
       <c r="C29" s="82"/>
@@ -7126,7 +7187,7 @@
       <c r="J29" s="85"/>
       <c r="K29" s="76"/>
     </row>
-    <row r="30" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>6</v>
       </c>
@@ -7150,7 +7211,7 @@
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="77" t="str">
         <f>B26</f>
@@ -7185,7 +7246,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="77" t="s">
         <v>71</v>
@@ -7225,7 +7286,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="77" t="s">
         <v>51</v>
@@ -7262,7 +7323,7 @@
         <v>0.58473026516306004</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="80"/>
       <c r="B34" s="77" t="s">
         <v>44</v>
@@ -7280,7 +7341,7 @@
       </c>
       <c r="K34" s="76"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="77"/>
       <c r="C35" s="82"/>
@@ -7293,7 +7354,7 @@
       <c r="J35" s="85"/>
       <c r="K35" s="76"/>
     </row>
-    <row r="36" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>7</v>
       </c>
@@ -7317,7 +7378,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="77" t="s">
         <v>69</v>
@@ -7356,7 +7417,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="77" t="s">
         <v>51</v>
@@ -7391,7 +7452,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="77" t="s">
         <v>44</v>
@@ -7416,7 +7477,7 @@
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="77"/>
       <c r="C40" s="76"/>
@@ -7436,7 +7497,7 @@
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
     </row>
-    <row r="41" spans="1:19" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>8</v>
       </c>
@@ -7460,7 +7521,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="77" t="s">
         <v>86</v>
@@ -7502,7 +7563,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="77" t="s">
         <v>51</v>
@@ -7537,7 +7598,7 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="77" t="s">
         <v>44</v>
@@ -7562,7 +7623,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="77"/>
       <c r="C45" s="76"/>
@@ -7582,7 +7643,7 @@
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>9</v>
       </c>
@@ -7618,7 +7679,7 @@
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="35"/>
       <c r="C47" s="30"/>
@@ -7638,7 +7699,7 @@
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="80"/>
       <c r="B48" s="87" t="s">
         <v>17</v>
@@ -7656,7 +7717,7 @@
       </c>
       <c r="K48" s="76"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="89"/>
       <c r="B49" s="90"/>
       <c r="C49" s="90"/>
@@ -7669,16 +7730,16 @@
       <c r="J49" s="89"/>
       <c r="K49" s="90"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91"/>
       <c r="B50" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="133">
+      <c r="C50" s="137">
         <f>J48</f>
         <v>559609.14225031692</v>
       </c>
-      <c r="D50" s="133"/>
+      <c r="D50" s="137"/>
       <c r="E50" s="79">
         <v>100</v>
       </c>
@@ -7689,15 +7750,15 @@
       <c r="J50" s="95"/>
       <c r="K50" s="96"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="97"/>
       <c r="B51" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="134">
+      <c r="C51" s="138">
         <v>500000</v>
       </c>
-      <c r="D51" s="134"/>
+      <c r="D51" s="138"/>
       <c r="E51" s="79"/>
       <c r="F51" s="90"/>
       <c r="G51" s="89"/>
@@ -7706,16 +7767,16 @@
       <c r="J51" s="89"/>
       <c r="K51" s="90"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="97"/>
       <c r="B52" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="134">
+      <c r="C52" s="138">
         <f>C51-C54-C55</f>
         <v>475000</v>
       </c>
-      <c r="D52" s="134"/>
+      <c r="D52" s="138"/>
       <c r="E52" s="79">
         <f>C52/C50*100</f>
         <v>84.880671907881251</v>
@@ -7727,16 +7788,16 @@
       <c r="J52" s="89"/>
       <c r="K52" s="90"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="97"/>
       <c r="B53" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="133">
+      <c r="C53" s="137">
         <f>C50-C52</f>
         <v>84609.142250316916</v>
       </c>
-      <c r="D53" s="133"/>
+      <c r="D53" s="137"/>
       <c r="E53" s="79">
         <f>100-E52</f>
         <v>15.119328092118749</v>
@@ -7748,16 +7809,16 @@
       <c r="J53" s="89"/>
       <c r="K53" s="90"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="97"/>
       <c r="B54" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="133">
+      <c r="C54" s="137">
         <f>C51*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D54" s="133"/>
+      <c r="D54" s="137"/>
       <c r="E54" s="79">
         <v>3</v>
       </c>
@@ -7768,16 +7829,16 @@
       <c r="J54" s="89"/>
       <c r="K54" s="90"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="97"/>
       <c r="B55" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="133">
+      <c r="C55" s="137">
         <f>C51*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D55" s="133"/>
+      <c r="D55" s="137"/>
       <c r="E55" s="79">
         <v>2</v>
       </c>
@@ -7788,7 +7849,7 @@
       <c r="J55" s="89"/>
       <c r="K55" s="90"/>
     </row>
-    <row r="56" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="98"/>
       <c r="B56" s="98"/>
       <c r="C56" s="98"/>
@@ -7801,64 +7862,71 @@
       <c r="J56" s="98"/>
       <c r="K56" s="98"/>
     </row>
-    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -7867,13 +7935,6 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7884,134 +7945,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -8046,7 +8107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>1</v>
       </c>
@@ -8063,7 +8124,7 @@
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="77" t="s">
         <v>67</v>
@@ -8100,7 +8161,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="77"/>
       <c r="C11" s="76">
@@ -8132,7 +8193,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="77" t="s">
         <v>53</v>
@@ -8166,7 +8227,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="77" t="s">
         <v>51</v>
@@ -8198,7 +8259,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="77" t="s">
         <v>44</v>
@@ -8223,7 +8284,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="35"/>
       <c r="C15" s="30"/>
@@ -8243,7 +8304,7 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>2</v>
       </c>
@@ -8267,7 +8328,7 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="77" t="str">
         <f>B12</f>
@@ -8302,7 +8363,7 @@
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80"/>
       <c r="B18" s="77" t="s">
         <v>51</v>
@@ -8327,7 +8388,7 @@
       </c>
       <c r="K18" s="76"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="80"/>
       <c r="B19" s="77" t="s">
         <v>44</v>
@@ -8345,7 +8406,7 @@
       </c>
       <c r="K19" s="76"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="80"/>
       <c r="B20" s="77"/>
       <c r="C20" s="82"/>
@@ -8358,7 +8419,7 @@
       <c r="J20" s="85"/>
       <c r="K20" s="76"/>
     </row>
-    <row r="21" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>3</v>
       </c>
@@ -8382,7 +8443,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="77" t="str">
         <f>B17</f>
@@ -8416,7 +8477,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="77" t="s">
         <v>51</v>
@@ -8441,7 +8502,7 @@
       </c>
       <c r="K23" s="76"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
       <c r="B24" s="77" t="s">
         <v>44</v>
@@ -8459,7 +8520,7 @@
       </c>
       <c r="K24" s="76"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="77"/>
       <c r="C25" s="82"/>
@@ -8472,7 +8533,7 @@
       <c r="J25" s="85"/>
       <c r="K25" s="76"/>
     </row>
-    <row r="26" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>5</v>
       </c>
@@ -8496,7 +8557,7 @@
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
     </row>
-    <row r="27" spans="1:19" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="77" t="s">
         <v>87</v>
@@ -8523,7 +8584,7 @@
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="77" t="s">
         <v>51</v>
@@ -8548,7 +8609,7 @@
       </c>
       <c r="K28" s="76"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="77" t="s">
         <v>44</v>
@@ -8566,7 +8627,7 @@
       </c>
       <c r="K29" s="76"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="77"/>
       <c r="C30" s="82"/>
@@ -8579,7 +8640,7 @@
       <c r="J30" s="85"/>
       <c r="K30" s="76"/>
     </row>
-    <row r="31" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>6</v>
       </c>
@@ -8603,7 +8664,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="77" t="str">
         <f>B27</f>
@@ -8638,7 +8699,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="77" t="s">
         <v>71</v>
@@ -8678,7 +8739,7 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="80"/>
       <c r="B34" s="77" t="s">
         <v>51</v>
@@ -8715,7 +8776,7 @@
         <v>0.58473026516306004</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="77" t="s">
         <v>44</v>
@@ -8733,7 +8794,7 @@
       </c>
       <c r="K35" s="76"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
       <c r="B36" s="77"/>
       <c r="C36" s="82"/>
@@ -8746,7 +8807,7 @@
       <c r="J36" s="85"/>
       <c r="K36" s="76"/>
     </row>
-    <row r="37" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>7</v>
       </c>
@@ -8770,7 +8831,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="77" t="s">
         <v>69</v>
@@ -8809,7 +8870,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="77" t="s">
         <v>51</v>
@@ -8844,7 +8905,7 @@
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="77" t="s">
         <v>44</v>
@@ -8869,7 +8930,7 @@
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="77"/>
       <c r="C41" s="76"/>
@@ -8889,7 +8950,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>8</v>
       </c>
@@ -8913,7 +8974,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="77" t="s">
         <v>70</v>
@@ -8952,7 +9013,7 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="77" t="s">
         <v>51</v>
@@ -8987,7 +9048,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="77" t="s">
         <v>44</v>
@@ -9012,7 +9073,7 @@
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="77"/>
       <c r="C46" s="76"/>
@@ -9032,7 +9093,7 @@
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>9</v>
       </c>
@@ -9068,7 +9129,7 @@
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="35"/>
       <c r="C48" s="30"/>
@@ -9088,7 +9149,7 @@
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="80"/>
       <c r="B49" s="87" t="s">
         <v>17</v>
@@ -9106,7 +9167,7 @@
       </c>
       <c r="K49" s="76"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="89"/>
       <c r="B50" s="90"/>
       <c r="C50" s="90"/>
@@ -9119,16 +9180,16 @@
       <c r="J50" s="89"/>
       <c r="K50" s="90"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="91"/>
       <c r="B51" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="133">
+      <c r="C51" s="137">
         <f>J49</f>
         <v>560312.25104410131</v>
       </c>
-      <c r="D51" s="133"/>
+      <c r="D51" s="137"/>
       <c r="E51" s="79">
         <v>100</v>
       </c>
@@ -9139,15 +9200,15 @@
       <c r="J51" s="95"/>
       <c r="K51" s="96"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="97"/>
       <c r="B52" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="134">
+      <c r="C52" s="138">
         <v>500000</v>
       </c>
-      <c r="D52" s="134"/>
+      <c r="D52" s="138"/>
       <c r="E52" s="79"/>
       <c r="F52" s="90"/>
       <c r="G52" s="89"/>
@@ -9156,16 +9217,16 @@
       <c r="J52" s="89"/>
       <c r="K52" s="90"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="97"/>
       <c r="B53" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="134">
+      <c r="C53" s="138">
         <f>C52-C55-C56</f>
         <v>475000</v>
       </c>
-      <c r="D53" s="134"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="79">
         <f>C53/C51*100</f>
         <v>84.774159250466482</v>
@@ -9177,16 +9238,16 @@
       <c r="J53" s="89"/>
       <c r="K53" s="90"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="97"/>
       <c r="B54" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="133">
+      <c r="C54" s="137">
         <f>C51-C53</f>
         <v>85312.251044101315</v>
       </c>
-      <c r="D54" s="133"/>
+      <c r="D54" s="137"/>
       <c r="E54" s="79">
         <f>100-E53</f>
         <v>15.225840749533518</v>
@@ -9198,16 +9259,16 @@
       <c r="J54" s="89"/>
       <c r="K54" s="90"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="97"/>
       <c r="B55" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="133">
+      <c r="C55" s="137">
         <f>C52*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D55" s="133"/>
+      <c r="D55" s="137"/>
       <c r="E55" s="79">
         <v>3</v>
       </c>
@@ -9218,16 +9279,16 @@
       <c r="J55" s="89"/>
       <c r="K55" s="90"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="97"/>
       <c r="B56" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="133">
+      <c r="C56" s="137">
         <f>C52*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D56" s="133"/>
+      <c r="D56" s="137"/>
       <c r="E56" s="79">
         <v>2</v>
       </c>
@@ -9238,7 +9299,7 @@
       <c r="J56" s="89"/>
       <c r="K56" s="90"/>
     </row>
-    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="98"/>
       <c r="B57" s="98"/>
       <c r="C57" s="98"/>
@@ -9251,71 +9312,64 @@
       <c r="J57" s="98"/>
       <c r="K57" s="98"/>
     </row>
-    <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="A7:F7"/>
@@ -9324,6 +9378,13 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9332,136 +9393,136 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -9496,10 +9557,10 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>1</v>
       </c>
@@ -9516,33 +9577,33 @@
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
       <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="76">
         <v>2</v>
       </c>
       <c r="D10" s="78">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E10" s="78">
         <v>0.45</v>
       </c>
       <c r="F10" s="78">
-        <f>1.5</f>
-        <v>1.5</v>
+        <f>(0.6+1)/2</f>
+        <v>0.8</v>
       </c>
       <c r="G10" s="79">
         <f>PRODUCT(C10:F10)</f>
-        <v>17.55</v>
+        <v>9</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
@@ -9556,7 +9617,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="77" t="s">
         <v>55</v>
@@ -9566,7 +9627,7 @@
       </c>
       <c r="D11" s="78">
         <f>D10</f>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E11" s="78">
         <v>4</v>
@@ -9576,7 +9637,7 @@
       </c>
       <c r="G11" s="79">
         <f>PRODUCT(C11:F11)</f>
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="80"/>
@@ -9590,7 +9651,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="77" t="s">
         <v>51</v>
@@ -9601,7 +9662,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="34">
         <f>SUM(G10:G11)</f>
-        <v>25.35</v>
+        <v>16.5</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>49</v>
@@ -9611,7 +9672,7 @@
       </c>
       <c r="J12" s="81">
         <f>G12*I12</f>
-        <v>1638.3705</v>
+        <v>1066.395</v>
       </c>
       <c r="K12" s="32"/>
       <c r="M12" s="36"/>
@@ -9622,7 +9683,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="77" t="s">
         <v>44</v>
@@ -9636,7 +9697,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="81">
         <f>0.13*G12*19284/360</f>
-        <v>176.52895000000001</v>
+        <v>114.90049999999999</v>
       </c>
       <c r="K13" s="32"/>
       <c r="M13" s="36"/>
@@ -9647,9 +9708,9 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
@@ -9667,12 +9728,12 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="31"/>
@@ -9691,29 +9752,27 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="77" t="str">
-        <f>B11</f>
-        <v>-Road</v>
+      <c r="B16" s="77" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="76">
-        <f>C11</f>
         <v>1</v>
       </c>
       <c r="D16" s="78">
-        <v>20</v>
+        <f>D11</f>
+        <v>12.5</v>
       </c>
       <c r="E16" s="78">
-        <f>E11</f>
         <v>4</v>
       </c>
       <c r="F16" s="78">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G16" s="79">
         <f>PRODUCT(C16:F16)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
@@ -9727,77 +9786,110 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
       <c r="B17" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="53">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="34">
         <f>SUM(G16:G16)</f>
-        <v>12</v>
-      </c>
-      <c r="H17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="53">
-        <v>4561.53</v>
-      </c>
-      <c r="J17" s="84">
+      <c r="I17" s="34">
+        <v>404.28</v>
+      </c>
+      <c r="J17" s="81">
         <f>G17*I17</f>
-        <v>54738.36</v>
-      </c>
-      <c r="K17" s="76"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
-      <c r="B18" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="85">
-        <f>0.13*G17*(15452.6/5)</f>
-        <v>4821.2111999999997</v>
-      </c>
-      <c r="K18" s="76"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="76"/>
-    </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+        <v>6064.2</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="32"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
         <v>3</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="81"/>
+      <c r="B19" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="32"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="77" t="str">
+        <f>B11</f>
+        <v>-Road</v>
+      </c>
+      <c r="C20" s="76">
+        <f>C11</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="78">
+        <f>D16</f>
+        <v>12.5</v>
+      </c>
+      <c r="E20" s="78">
+        <f>E11</f>
+        <v>4</v>
+      </c>
+      <c r="F20" s="78">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="79">
+        <f>PRODUCT(C20:F20)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="32"/>
       <c r="M20" s="36"/>
       <c r="N20" s="1"/>
@@ -9807,712 +9899,817 @@
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="77" t="str">
-        <f>B10</f>
-        <v>-For wall</v>
-      </c>
-      <c r="C21" s="76">
-        <f>C10</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="78">
-        <f>D10</f>
-        <v>13</v>
-      </c>
-      <c r="E21" s="78">
-        <f>E10</f>
-        <v>0.45</v>
-      </c>
-      <c r="F21" s="78">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G21" s="79">
-        <f>PRODUCT(C21:F21)</f>
-        <v>0.87750000000000006</v>
-      </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="32"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="77" t="str">
-        <f>B16</f>
-        <v>-Road</v>
-      </c>
-      <c r="C22" s="76">
-        <f>C16</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="78">
-        <f>D16</f>
-        <v>20</v>
-      </c>
-      <c r="E22" s="78">
-        <f>E16</f>
-        <v>4</v>
-      </c>
-      <c r="F22" s="78">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G22" s="79">
-        <f>PRODUCT(C22:F22)</f>
-        <v>6</v>
-      </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="32"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="53">
+        <f>SUM(G20:G20)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="53">
+        <v>4561.53</v>
+      </c>
+      <c r="J21" s="84">
+        <f>G21*I21</f>
+        <v>34211.474999999999</v>
+      </c>
+      <c r="K21" s="76"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="85">
+        <f>0.13*G21*(15452.6/5)</f>
+        <v>3013.2570000000001</v>
+      </c>
+      <c r="K22" s="76"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
-      <c r="B23" s="77" t="s">
-        <v>51</v>
-      </c>
+      <c r="B23" s="77"/>
       <c r="C23" s="82"/>
       <c r="D23" s="83"/>
       <c r="E23" s="83"/>
       <c r="F23" s="83"/>
-      <c r="G23" s="53">
-        <f>SUM(G21:G22)</f>
-        <v>6.8775000000000004</v>
-      </c>
-      <c r="H23" s="53" t="s">
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="76"/>
+    </row>
+    <row r="24" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>4</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="32"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="77" t="str">
+        <f>B10</f>
+        <v>-For wall</v>
+      </c>
+      <c r="C25" s="76">
+        <f>C10</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="78">
+        <f>D10</f>
+        <v>12.5</v>
+      </c>
+      <c r="E25" s="78">
+        <f>E10</f>
+        <v>0.45</v>
+      </c>
+      <c r="F25" s="78">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G25" s="79">
+        <f>PRODUCT(C25:F25)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="32"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
+      <c r="B26" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="53">
+        <f>SUM(G25:G25)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="H26" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I26" s="53">
         <v>10634.5</v>
       </c>
-      <c r="J23" s="84">
-        <f>G23*I23</f>
-        <v>73138.773750000008</v>
-      </c>
-      <c r="K23" s="76"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="77" t="s">
+      <c r="J26" s="84">
+        <f>G26*I26</f>
+        <v>8972.859375</v>
+      </c>
+      <c r="K26" s="76"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="85">
-        <f>0.13*G23*((114907.3+6135.3)/15)</f>
-        <v>7214.744173000001</v>
-      </c>
-      <c r="K24" s="76"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="76"/>
-    </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A26" s="135">
-        <v>4</v>
-      </c>
-      <c r="B26" s="41" t="s">
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="85">
+        <f>0.13*G26*((114907.3+6135.3)/15)</f>
+        <v>885.12401250000016</v>
+      </c>
+      <c r="K27" s="76"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="76"/>
+    </row>
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="107">
+        <v>5</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="136" t="s">
+      <c r="C29" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="137" t="s">
+      <c r="D29" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="40"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="80"/>
-      <c r="B27" s="77" t="str">
-        <f>B16</f>
+      <c r="E29" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="80"/>
+      <c r="B30" s="77" t="str">
+        <f>B20</f>
         <v>-Road</v>
       </c>
-      <c r="C27" s="82">
-        <f>TRUNC(D28/0.15,0)</f>
-        <v>132</v>
-      </c>
-      <c r="D27" s="83">
-        <f>E16-0.1</f>
+      <c r="C30" s="82">
+        <f>TRUNC(D31/0.15,0)</f>
+        <v>82</v>
+      </c>
+      <c r="D30" s="83">
+        <f>E20-0.1</f>
         <v>3.9</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E30" s="83">
         <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F27" s="83">
-        <f>PRODUCT(C27:E27)</f>
-        <v>203.37777777777774</v>
-      </c>
-      <c r="G27" s="83">
-        <f>F27/1000</f>
-        <v>0.20337777777777774</v>
-      </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="76"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="82">
-        <f>TRUNC(D27/0.15,0)</f>
+      <c r="F30" s="83">
+        <f>PRODUCT(C30:E30)</f>
+        <v>126.34074074074074</v>
+      </c>
+      <c r="G30" s="83">
+        <f>F30/1000</f>
+        <v>0.12634074074074075</v>
+      </c>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="76"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="82">
+        <f>TRUNC(D30/0.15,0)</f>
         <v>26</v>
       </c>
-      <c r="D28" s="8">
-        <f>D16-0.1</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E28" s="83">
+      <c r="D31" s="8">
+        <f>D20-0.1</f>
+        <v>12.4</v>
+      </c>
+      <c r="E31" s="83">
         <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F28" s="83">
-        <f>PRODUCT(C28:E28)</f>
-        <v>204.40493827160492</v>
-      </c>
-      <c r="G28" s="83">
-        <f>F28/1000</f>
-        <v>0.20440493827160491</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="80"/>
-      <c r="B29" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="53">
-        <f>SUM(G27:G28)</f>
-        <v>0.40778271604938265</v>
-      </c>
-      <c r="H29" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="53">
-        <v>124140</v>
-      </c>
-      <c r="J29" s="84">
-        <f>G29*I29</f>
-        <v>50622.146370370363</v>
-      </c>
-      <c r="K29" s="76"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
-      <c r="B30" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="85">
-        <f>0.13*G29*110960</f>
-        <v>5882.1841224691352</v>
-      </c>
-      <c r="K30" s="76"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="83">
+        <f>PRODUCT(C31:E31)</f>
+        <v>127.36790123456791</v>
+      </c>
+      <c r="G31" s="83">
+        <f>F31/1000</f>
+        <v>0.1273679012345679</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80"/>
-      <c r="B32" s="41" t="s">
-        <v>74</v>
+      <c r="B32" s="77" t="s">
+        <v>51</v>
       </c>
       <c r="C32" s="82"/>
       <c r="D32" s="83"/>
       <c r="E32" s="83"/>
       <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="85"/>
+      <c r="G32" s="53">
+        <f>SUM(G30:G31)</f>
+        <v>0.25370864197530862</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="53">
+        <v>124140</v>
+      </c>
+      <c r="J32" s="84">
+        <f>G32*I32</f>
+        <v>31495.390814814811</v>
+      </c>
       <c r="K32" s="76"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
-      <c r="B33" s="35" t="str">
-        <f>B16</f>
-        <v>-Road</v>
-      </c>
-      <c r="C33" s="82">
-        <f>C16</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="83">
-        <f>D16</f>
-        <v>20</v>
-      </c>
-      <c r="E33" s="83">
-        <f>E16</f>
-        <v>4</v>
-      </c>
-      <c r="F33" s="83">
-        <v>0.15</v>
-      </c>
-      <c r="G33" s="79">
-        <f>PRODUCT(C33:F33)</f>
-        <v>12</v>
-      </c>
+      <c r="B33" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="83"/>
       <c r="I33" s="83"/>
-      <c r="J33" s="85"/>
+      <c r="J33" s="85">
+        <f>0.13*G32*110960</f>
+        <v>3659.6964187654321</v>
+      </c>
       <c r="K33" s="76"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="80"/>
-      <c r="B34" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="53">
-        <f>SUM(G33:G33)</f>
-        <v>12</v>
-      </c>
-      <c r="H34" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="53">
-        <v>11588.17</v>
-      </c>
-      <c r="J34" s="84">
-        <f>G34*I34</f>
-        <v>139058.04</v>
-      </c>
-      <c r="K34" s="76"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
-      <c r="B35" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="85">
-        <f>0.13*G34*((128662.2+6685.5)/15)</f>
-        <v>14076.160800000001</v>
-      </c>
-      <c r="K35" s="76"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="107">
+        <v>6</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="108"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="40"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
+      <c r="B36" s="35" t="str">
+        <f>B20</f>
+        <v>-Road</v>
+      </c>
+      <c r="C36" s="82">
+        <f>C20</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="83">
+        <f>D20</f>
+        <v>12.5</v>
+      </c>
+      <c r="E36" s="83">
+        <f>E20</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="83">
+        <v>0.15</v>
+      </c>
+      <c r="G36" s="79">
+        <f>PRODUCT(C36:F36)</f>
+        <v>7.5</v>
+      </c>
       <c r="H36" s="83"/>
       <c r="I36" s="83"/>
       <c r="J36" s="85"/>
       <c r="K36" s="76"/>
     </row>
-    <row r="37" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="29">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
+      <c r="B37" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="53">
+        <f>SUM(G36:G36)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="53">
+        <v>11588.17</v>
+      </c>
+      <c r="J37" s="84">
+        <f>G37*I37</f>
+        <v>86911.274999999994</v>
+      </c>
+      <c r="K37" s="76"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="80"/>
+      <c r="B38" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="85">
+        <f>0.13*G37*((128662.2+6685.5)/15)</f>
+        <v>8797.6005000000005</v>
+      </c>
+      <c r="K38" s="76"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="80"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="76"/>
+    </row>
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="107">
+        <v>7</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="108"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="40"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="76">
+        <v>2</v>
+      </c>
+      <c r="D41" s="78">
+        <f>D10</f>
+        <v>12.5</v>
+      </c>
+      <c r="E41" s="78">
+        <v>0.45</v>
+      </c>
+      <c r="F41" s="78">
+        <f>(1.5+1)/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G41" s="79">
+        <f>PRODUCT(C41:F41)</f>
+        <v>14.0625</v>
+      </c>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="32"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="80"/>
+      <c r="B42" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="53">
+        <f>SUM(G41:G41)</f>
+        <v>14.0625</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="53">
+        <v>10113.719999999999</v>
+      </c>
+      <c r="J42" s="84">
+        <f>G42*I42</f>
+        <v>142224.1875</v>
+      </c>
+      <c r="K42" s="76"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="80"/>
+      <c r="B43" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="85">
+        <f>0.13*G42*((28040.8)/5)</f>
+        <v>10252.4175</v>
+      </c>
+      <c r="K43" s="76"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="80"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="76"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
         <v>8</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="30">
+      <c r="B45" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="30">
         <v>1</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="59">
-        <f>PRODUCT(C37:F37)</f>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="59">
+        <f t="shared" ref="G45" si="0">PRODUCT(C45:F45)</f>
         <v>1</v>
       </c>
-      <c r="H37" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="I37" s="34">
-        <v>5000</v>
-      </c>
-      <c r="J37" s="59">
-        <f>G37*I37</f>
-        <v>5000</v>
-      </c>
-      <c r="K37" s="32"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="32"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29">
-        <v>9</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="30">
-        <v>1</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="59">
-        <f t="shared" ref="G39" si="0">PRODUCT(C39:F39)</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="33" t="s">
+      <c r="H45" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="34">
-        <v>1000</v>
-      </c>
-      <c r="J39" s="59">
-        <f>G39*I39</f>
-        <v>1000</v>
-      </c>
-      <c r="K39" s="32"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="32"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="80"/>
-      <c r="B41" s="87" t="s">
+      <c r="I45" s="34">
+        <v>500</v>
+      </c>
+      <c r="J45" s="59">
+        <f>G45*I45</f>
+        <v>500</v>
+      </c>
+      <c r="K45" s="32"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="32"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="80"/>
+      <c r="B47" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81">
-        <f>SUM(J10:J39)</f>
-        <v>357366.51986583951</v>
-      </c>
-      <c r="K41" s="76"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="102"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="98"/>
-    </row>
-    <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
-      <c r="B43" s="40" t="s">
+      <c r="C47" s="88"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81">
+        <f>SUM(J10:J45)</f>
+        <v>338168.77862108022</v>
+      </c>
+      <c r="K47" s="76"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="102"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="98"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="91"/>
+      <c r="B49" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="133">
-        <f>J41</f>
-        <v>357366.51986583951</v>
-      </c>
-      <c r="D43" s="133"/>
-      <c r="E43" s="79">
+      <c r="C49" s="137">
+        <f>J47</f>
+        <v>338168.77862108022</v>
+      </c>
+      <c r="D49" s="137"/>
+      <c r="E49" s="79">
         <v>100</v>
       </c>
-      <c r="F43" s="92"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="96"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="97"/>
-      <c r="B44" s="40" t="s">
+      <c r="F49" s="92"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="96"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="97"/>
+      <c r="B50" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="134">
+      <c r="C50" s="138">
         <v>300000</v>
       </c>
-      <c r="D44" s="134"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="90"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="97"/>
-      <c r="B45" s="40" t="s">
+      <c r="D50" s="138"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="90"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="97"/>
+      <c r="B51" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="134">
-        <f>C44-C47-C48</f>
+      <c r="C51" s="138">
+        <f>C50-C53-C54</f>
         <v>285000</v>
       </c>
-      <c r="D45" s="134"/>
-      <c r="E45" s="79">
-        <f>C45/C43*100</f>
-        <v>79.750056078838355</v>
-      </c>
-      <c r="F45" s="90"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="90"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="97"/>
-      <c r="B46" s="40" t="s">
+      <c r="D51" s="138"/>
+      <c r="E51" s="79">
+        <f>C51/C49*100</f>
+        <v>84.277443104629086</v>
+      </c>
+      <c r="F51" s="90"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="90"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="97"/>
+      <c r="B52" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="133">
-        <f>C43-C45</f>
-        <v>72366.519865839509</v>
-      </c>
-      <c r="D46" s="133"/>
-      <c r="E46" s="79">
-        <f>100-E45</f>
-        <v>20.249943921161645</v>
-      </c>
-      <c r="F46" s="90"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="90"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="97"/>
-      <c r="B47" s="40" t="s">
+      <c r="C52" s="137">
+        <f>C49-C51</f>
+        <v>53168.778621080215</v>
+      </c>
+      <c r="D52" s="137"/>
+      <c r="E52" s="79">
+        <f>100-E51</f>
+        <v>15.722556895370914</v>
+      </c>
+      <c r="F52" s="90"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="90"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="97"/>
+      <c r="B53" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="133">
-        <f>C44*0.03</f>
+      <c r="C53" s="137">
+        <f>C50*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D47" s="133"/>
-      <c r="E47" s="79">
+      <c r="D53" s="137"/>
+      <c r="E53" s="79">
         <v>3</v>
       </c>
-      <c r="F47" s="90"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="90"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="97"/>
-      <c r="B48" s="40" t="s">
+      <c r="F53" s="90"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="90"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="97"/>
+      <c r="B54" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="133">
-        <f>C44*0.02</f>
+      <c r="C54" s="137">
+        <f>C50*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D48" s="133"/>
-      <c r="E48" s="79">
+      <c r="D54" s="137"/>
+      <c r="E54" s="79">
         <v>2</v>
       </c>
-      <c r="F48" s="90"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="90"/>
-    </row>
-    <row r="49" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
-    </row>
-    <row r="50" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="90"/>
+    </row>
+    <row r="55" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="98"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="98"/>
+    </row>
+    <row r="56" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -10520,14 +10717,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>

--- a/ofc/estimates/kurthali sadak/kurthali sadak.xlsx
+++ b/ofc/estimates/kurthali sadak/kurthali sadak.xlsx
@@ -839,17 +839,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -864,30 +866,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,6 +892,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1240,7 +1240,7 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="299">
           <cell r="B299" t="str">
@@ -1248,25 +1248,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1636,38 +1636,38 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="112" t="s">
+      <c r="H7" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3316,11 +3316,11 @@
       <c r="B73" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="114">
+      <c r="C73" s="112">
         <f>J71</f>
         <v>1194331.7948368895</v>
       </c>
-      <c r="D73" s="115"/>
+      <c r="D73" s="113"/>
       <c r="E73" s="16">
         <v>100</v>
       </c>
@@ -3335,21 +3335,21 @@
       <c r="B74" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="121">
+      <c r="C74" s="114">
         <v>1000000</v>
       </c>
-      <c r="D74" s="122"/>
+      <c r="D74" s="115"/>
       <c r="E74" s="16"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="121">
+      <c r="C75" s="114">
         <f>C74-C77-C78</f>
         <v>950000</v>
       </c>
-      <c r="D75" s="122"/>
+      <c r="D75" s="115"/>
       <c r="E75" s="16">
         <f>C75/C73*100</f>
         <v>79.542385466656867</v>
@@ -3359,11 +3359,11 @@
       <c r="B76" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="120">
+      <c r="C76" s="111">
         <f>C73-C75</f>
         <v>244331.79483688949</v>
       </c>
-      <c r="D76" s="120"/>
+      <c r="D76" s="111"/>
       <c r="E76" s="16">
         <f>100-E75</f>
         <v>20.457614533343133</v>
@@ -3373,11 +3373,11 @@
       <c r="B77" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="114">
+      <c r="C77" s="112">
         <f>C74*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D77" s="115"/>
+      <c r="D77" s="113"/>
       <c r="E77" s="16">
         <v>3</v>
       </c>
@@ -3386,32 +3386,32 @@
       <c r="B78" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="114">
+      <c r="C78" s="112">
         <f>C74*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D78" s="115"/>
+      <c r="D78" s="113"/>
       <c r="E78" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C73:D73"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3525,38 +3525,38 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="112" t="s">
+      <c r="H7" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -4721,11 +4721,11 @@
       <c r="B55" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="114">
+      <c r="C55" s="112">
         <f>J53</f>
         <v>563311.92829411826</v>
       </c>
-      <c r="D55" s="115"/>
+      <c r="D55" s="113"/>
       <c r="E55" s="16">
         <v>100</v>
       </c>
@@ -4741,10 +4741,10 @@
       <c r="B56" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="121">
+      <c r="C56" s="114">
         <v>500000</v>
       </c>
-      <c r="D56" s="122"/>
+      <c r="D56" s="115"/>
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -4752,11 +4752,11 @@
       <c r="B57" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="121">
+      <c r="C57" s="114">
         <f>C56-C59-C60</f>
         <v>475000</v>
       </c>
-      <c r="D57" s="122"/>
+      <c r="D57" s="115"/>
       <c r="E57" s="16">
         <f>C57/C55*100</f>
         <v>84.322730647377924</v>
@@ -4767,11 +4767,11 @@
       <c r="B58" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="120">
+      <c r="C58" s="111">
         <f>C55-C57</f>
         <v>88311.928294118261</v>
       </c>
-      <c r="D58" s="120"/>
+      <c r="D58" s="111"/>
       <c r="E58" s="16">
         <f>100-E57</f>
         <v>15.677269352622076</v>
@@ -4782,11 +4782,11 @@
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="114">
+      <c r="C59" s="112">
         <f>C56*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D59" s="115"/>
+      <c r="D59" s="113"/>
       <c r="E59" s="16">
         <v>3</v>
       </c>
@@ -4796,24 +4796,17 @@
       <c r="B60" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="114">
+      <c r="C60" s="112">
         <f>C56*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D60" s="115"/>
+      <c r="D60" s="113"/>
       <c r="E60" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A7:F7"/>
@@ -4822,6 +4815,13 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4862,34 +4862,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
@@ -4922,30 +4922,30 @@
       <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="123" t="e">
+      <c r="C6" s="130" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4953,11 +4953,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="123" t="e">
+      <c r="J6" s="130" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="124"/>
+      <c r="K6" s="131"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
@@ -4966,77 +4966,77 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="I7" s="131" t="s">
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="I7" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="str">
+      <c r="A8" s="120" t="str">
         <f>Estimate!A6</f>
         <v>Project:- बेन्डोल हाईट सडक निर्माण</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="I8" s="132" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="I8" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="str">
+      <c r="A9" s="128" t="str">
         <f>Estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="I9" s="132" t="s">
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="I9" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134" t="s">
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="128" t="s">
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="129" t="s">
+      <c r="K11" s="124" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
@@ -5055,8 +5055,8 @@
       <c r="I12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
@@ -5218,6 +5218,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -5231,13 +5238,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5349,21 +5349,21 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="s">
@@ -6621,21 +6621,21 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="s">
@@ -7920,13 +7920,6 @@
     <row r="112" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -7935,6 +7928,13 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8039,21 +8039,21 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="s">
@@ -9370,6 +9370,13 @@
     <row r="113" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="A7:F7"/>
@@ -9378,13 +9385,6 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9395,8 +9395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9489,21 +9489,21 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="s">
@@ -9592,7 +9592,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="78">
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="E10" s="78">
         <v>0.45</v>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="G10" s="79">
         <f>PRODUCT(C10:F10)</f>
-        <v>9</v>
+        <v>8.7480000000000011</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
@@ -9626,8 +9626,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="78">
-        <f>D10</f>
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="E11" s="78">
         <v>4</v>
@@ -9637,7 +9636,7 @@
       </c>
       <c r="G11" s="79">
         <f>PRODUCT(C11:F11)</f>
-        <v>7.5</v>
+        <v>7.29</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="80"/>
@@ -9662,7 +9661,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="34">
         <f>SUM(G10:G11)</f>
-        <v>16.5</v>
+        <v>16.038</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>49</v>
@@ -9672,7 +9671,7 @@
       </c>
       <c r="J12" s="81">
         <f>G12*I12</f>
-        <v>1066.395</v>
+        <v>1036.53594</v>
       </c>
       <c r="K12" s="32"/>
       <c r="M12" s="36"/>
@@ -9697,7 +9696,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="81">
         <f>0.13*G12*19284/360</f>
-        <v>114.90049999999999</v>
+        <v>111.68328600000001</v>
       </c>
       <c r="K13" s="32"/>
       <c r="M13" s="36"/>
@@ -9762,7 +9761,7 @@
       </c>
       <c r="D16" s="78">
         <f>D11</f>
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="E16" s="78">
         <v>4</v>
@@ -9772,7 +9771,7 @@
       </c>
       <c r="G16" s="79">
         <f>PRODUCT(C16:F16)</f>
-        <v>15</v>
+        <v>14.58</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
@@ -9797,7 +9796,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="34">
         <f>SUM(G16:G16)</f>
-        <v>15</v>
+        <v>14.58</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>49</v>
@@ -9807,7 +9806,7 @@
       </c>
       <c r="J17" s="81">
         <f>G17*I17</f>
-        <v>6064.2</v>
+        <v>5894.4023999999999</v>
       </c>
       <c r="K17" s="32"/>
       <c r="M17" s="36"/>
@@ -9874,7 +9873,7 @@
       </c>
       <c r="D20" s="78">
         <f>D16</f>
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="E20" s="78">
         <f>E11</f>
@@ -9885,7 +9884,7 @@
       </c>
       <c r="G20" s="79">
         <f>PRODUCT(C20:F20)</f>
-        <v>7.5</v>
+        <v>7.29</v>
       </c>
       <c r="H20" s="80"/>
       <c r="I20" s="80"/>
@@ -9910,7 +9909,7 @@
       <c r="F21" s="83"/>
       <c r="G21" s="53">
         <f>SUM(G20:G20)</f>
-        <v>7.5</v>
+        <v>7.29</v>
       </c>
       <c r="H21" s="53" t="s">
         <v>49</v>
@@ -9920,7 +9919,7 @@
       </c>
       <c r="J21" s="84">
         <f>G21*I21</f>
-        <v>34211.474999999999</v>
+        <v>33253.553699999997</v>
       </c>
       <c r="K21" s="76"/>
     </row>
@@ -9938,7 +9937,7 @@
       <c r="I22" s="83"/>
       <c r="J22" s="85">
         <f>0.13*G21*(15452.6/5)</f>
-        <v>3013.2570000000001</v>
+        <v>2928.885804</v>
       </c>
       <c r="K22" s="76"/>
     </row>
@@ -9991,7 +9990,7 @@
       </c>
       <c r="D25" s="78">
         <f>D10</f>
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="E25" s="78">
         <f>E10</f>
@@ -10002,7 +10001,7 @@
       </c>
       <c r="G25" s="79">
         <f>PRODUCT(C25:F25)</f>
-        <v>0.84375</v>
+        <v>0.82012499999999999</v>
       </c>
       <c r="H25" s="80"/>
       <c r="I25" s="80"/>
@@ -10027,7 +10026,7 @@
       <c r="F26" s="83"/>
       <c r="G26" s="53">
         <f>SUM(G25:G25)</f>
-        <v>0.84375</v>
+        <v>0.82012499999999999</v>
       </c>
       <c r="H26" s="53" t="s">
         <v>49</v>
@@ -10037,7 +10036,7 @@
       </c>
       <c r="J26" s="84">
         <f>G26*I26</f>
-        <v>8972.859375</v>
+        <v>8721.6193124999991</v>
       </c>
       <c r="K26" s="76"/>
     </row>
@@ -10055,7 +10054,7 @@
       <c r="I27" s="83"/>
       <c r="J27" s="85">
         <f>0.13*G26*((114907.3+6135.3)/15)</f>
-        <v>885.12401250000016</v>
+        <v>860.34054015000015</v>
       </c>
       <c r="K27" s="76"/>
     </row>
@@ -10105,23 +10104,23 @@
       </c>
       <c r="C30" s="82">
         <f>TRUNC(D31/0.15,0)</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30" s="83">
         <f>E20-0.1</f>
         <v>3.9</v>
       </c>
       <c r="E30" s="83">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
+        <f>10*10/162</f>
+        <v>0.61728395061728392</v>
       </c>
       <c r="F30" s="83">
         <f>PRODUCT(C30:E30)</f>
-        <v>126.34074074074074</v>
+        <v>192.59259259259258</v>
       </c>
       <c r="G30" s="83">
         <f>F30/1000</f>
-        <v>0.12634074074074075</v>
+        <v>0.19259259259259259</v>
       </c>
       <c r="H30" s="83"/>
       <c r="I30" s="83"/>
@@ -10137,7 +10136,7 @@
       </c>
       <c r="D31" s="8">
         <f>D20-0.1</f>
-        <v>12.4</v>
+        <v>12.05</v>
       </c>
       <c r="E31" s="83">
         <f>8*8/162</f>
@@ -10145,11 +10144,11 @@
       </c>
       <c r="F31" s="83">
         <f>PRODUCT(C31:E31)</f>
-        <v>127.36790123456791</v>
+        <v>123.77283950617284</v>
       </c>
       <c r="G31" s="83">
         <f>F31/1000</f>
-        <v>0.1273679012345679</v>
+        <v>0.12377283950617285</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10169,7 +10168,7 @@
       <c r="F32" s="83"/>
       <c r="G32" s="53">
         <f>SUM(G30:G31)</f>
-        <v>0.25370864197530862</v>
+        <v>0.31636543209876544</v>
       </c>
       <c r="H32" s="53" t="s">
         <v>49</v>
@@ -10179,7 +10178,7 @@
       </c>
       <c r="J32" s="84">
         <f>G32*I32</f>
-        <v>31495.390814814811</v>
+        <v>39273.604740740739</v>
       </c>
       <c r="K32" s="76"/>
     </row>
@@ -10197,7 +10196,7 @@
       <c r="I33" s="83"/>
       <c r="J33" s="85">
         <f>0.13*G32*110960</f>
-        <v>3659.6964187654321</v>
+        <v>4563.5080849382721</v>
       </c>
       <c r="K33" s="76"/>
     </row>
@@ -10243,7 +10242,7 @@
       </c>
       <c r="D36" s="83">
         <f>D20</f>
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="E36" s="83">
         <f>E20</f>
@@ -10254,7 +10253,7 @@
       </c>
       <c r="G36" s="79">
         <f>PRODUCT(C36:F36)</f>
-        <v>7.5</v>
+        <v>7.29</v>
       </c>
       <c r="H36" s="83"/>
       <c r="I36" s="83"/>
@@ -10272,7 +10271,7 @@
       <c r="F37" s="83"/>
       <c r="G37" s="53">
         <f>SUM(G36:G36)</f>
-        <v>7.5</v>
+        <v>7.29</v>
       </c>
       <c r="H37" s="53" t="s">
         <v>49</v>
@@ -10282,7 +10281,7 @@
       </c>
       <c r="J37" s="84">
         <f>G37*I37</f>
-        <v>86911.274999999994</v>
+        <v>84477.759300000005</v>
       </c>
       <c r="K37" s="76"/>
     </row>
@@ -10300,7 +10299,7 @@
       <c r="I38" s="83"/>
       <c r="J38" s="85">
         <f>0.13*G37*((128662.2+6685.5)/15)</f>
-        <v>8797.6005000000005</v>
+        <v>8551.267686000001</v>
       </c>
       <c r="K38" s="76"/>
     </row>
@@ -10344,7 +10343,7 @@
       </c>
       <c r="D41" s="78">
         <f>D10</f>
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="E41" s="78">
         <v>0.45</v>
@@ -10355,7 +10354,7 @@
       </c>
       <c r="G41" s="79">
         <f>PRODUCT(C41:F41)</f>
-        <v>14.0625</v>
+        <v>13.668750000000001</v>
       </c>
       <c r="H41" s="80"/>
       <c r="I41" s="80"/>
@@ -10380,7 +10379,7 @@
       <c r="F42" s="83"/>
       <c r="G42" s="53">
         <f>SUM(G41:G41)</f>
-        <v>14.0625</v>
+        <v>13.668750000000001</v>
       </c>
       <c r="H42" s="53" t="s">
         <v>49</v>
@@ -10390,7 +10389,7 @@
       </c>
       <c r="J42" s="84">
         <f>G42*I42</f>
-        <v>142224.1875</v>
+        <v>138241.91025000002</v>
       </c>
       <c r="K42" s="76"/>
     </row>
@@ -10408,7 +10407,7 @@
       <c r="I43" s="83"/>
       <c r="J43" s="85">
         <f>0.13*G42*((28040.8)/5)</f>
-        <v>10252.4175</v>
+        <v>9965.3498100000015</v>
       </c>
       <c r="K43" s="76"/>
     </row>
@@ -10495,7 +10494,7 @@
       <c r="I47" s="81"/>
       <c r="J47" s="81">
         <f>SUM(J10:J45)</f>
-        <v>338168.77862108022</v>
+        <v>338380.42085432902</v>
       </c>
       <c r="K47" s="76"/>
     </row>
@@ -10519,7 +10518,7 @@
       </c>
       <c r="C49" s="137">
         <f>J47</f>
-        <v>338168.77862108022</v>
+        <v>338380.42085432902</v>
       </c>
       <c r="D49" s="137"/>
       <c r="E49" s="79">
@@ -10561,7 +10560,7 @@
       <c r="D51" s="138"/>
       <c r="E51" s="79">
         <f>C51/C49*100</f>
-        <v>84.277443104629086</v>
+        <v>84.224731230147327</v>
       </c>
       <c r="F51" s="90"/>
       <c r="G51" s="89"/>
@@ -10577,12 +10576,12 @@
       </c>
       <c r="C52" s="137">
         <f>C49-C51</f>
-        <v>53168.778621080215</v>
+        <v>53380.420854329015</v>
       </c>
       <c r="D52" s="137"/>
       <c r="E52" s="79">
         <f>100-E51</f>
-        <v>15.722556895370914</v>
+        <v>15.775268769852673</v>
       </c>
       <c r="F52" s="90"/>
       <c r="G52" s="89"/>
@@ -10702,6 +10701,13 @@
     <row r="111" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="A7:F7"/>
@@ -10710,13 +10716,6 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>

--- a/ofc/estimates/kurthali sadak/kurthali sadak.xlsx
+++ b/ofc/estimates/kurthali sadak/kurthali sadak.xlsx
@@ -48,7 +48,7 @@
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Estimate!$A$1:$K$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">final!$A$1:$K$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'kurthali final'!$A$1:$K$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'kurthali final'!$A$1:$K$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">final!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'kurthali final'!$1:$8</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="99">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -341,12 +341,6 @@
     <t>Providing and Laying Reinforced cement concrete NP3 Flush jointed pipe for culverts including fixing with cement mortar 1:2 as per Drawing and Technical Specifications., 450 mm  internal dia.</t>
   </si>
   <si>
-    <t>Date:2081/06/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project:- सुन्दरबस्ती सडक ग्राबेल र ढलान (ढल निर्माण कार्य) </t>
-  </si>
-  <si>
     <t>45m</t>
   </si>
   <si>
@@ -369,6 +363,12 @@
   </si>
   <si>
     <t>Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod</t>
+  </si>
+  <si>
+    <t>Provisional sum for lab tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project:- मनोहरा झोलुङ्गे पुल निस्किने बाटो निर्माण </t>
   </si>
 </sst>
 </file>
@@ -839,19 +839,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -866,13 +864,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,21 +907,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1636,38 +1636,38 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3316,11 +3316,11 @@
       <c r="B73" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="112">
+      <c r="C73" s="114">
         <f>J71</f>
         <v>1194331.7948368895</v>
       </c>
-      <c r="D73" s="113"/>
+      <c r="D73" s="115"/>
       <c r="E73" s="16">
         <v>100</v>
       </c>
@@ -3335,21 +3335,21 @@
       <c r="B74" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="114">
+      <c r="C74" s="121">
         <v>1000000</v>
       </c>
-      <c r="D74" s="115"/>
+      <c r="D74" s="122"/>
       <c r="E74" s="16"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="114">
+      <c r="C75" s="121">
         <f>C74-C77-C78</f>
         <v>950000</v>
       </c>
-      <c r="D75" s="115"/>
+      <c r="D75" s="122"/>
       <c r="E75" s="16">
         <f>C75/C73*100</f>
         <v>79.542385466656867</v>
@@ -3359,11 +3359,11 @@
       <c r="B76" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="111">
+      <c r="C76" s="120">
         <f>C73-C75</f>
         <v>244331.79483688949</v>
       </c>
-      <c r="D76" s="111"/>
+      <c r="D76" s="120"/>
       <c r="E76" s="16">
         <f>100-E75</f>
         <v>20.457614533343133</v>
@@ -3373,11 +3373,11 @@
       <c r="B77" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="112">
+      <c r="C77" s="114">
         <f>C74*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D77" s="113"/>
+      <c r="D77" s="115"/>
       <c r="E77" s="16">
         <v>3</v>
       </c>
@@ -3386,32 +3386,32 @@
       <c r="B78" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="112">
+      <c r="C78" s="114">
         <f>C74*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D78" s="113"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3525,38 +3525,38 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -4721,11 +4721,11 @@
       <c r="B55" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="112">
+      <c r="C55" s="114">
         <f>J53</f>
         <v>563311.92829411826</v>
       </c>
-      <c r="D55" s="113"/>
+      <c r="D55" s="115"/>
       <c r="E55" s="16">
         <v>100</v>
       </c>
@@ -4741,10 +4741,10 @@
       <c r="B56" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="114">
+      <c r="C56" s="121">
         <v>500000</v>
       </c>
-      <c r="D56" s="115"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -4752,11 +4752,11 @@
       <c r="B57" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="114">
+      <c r="C57" s="121">
         <f>C56-C59-C60</f>
         <v>475000</v>
       </c>
-      <c r="D57" s="115"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="16">
         <f>C57/C55*100</f>
         <v>84.322730647377924</v>
@@ -4767,11 +4767,11 @@
       <c r="B58" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="111">
+      <c r="C58" s="120">
         <f>C55-C57</f>
         <v>88311.928294118261</v>
       </c>
-      <c r="D58" s="111"/>
+      <c r="D58" s="120"/>
       <c r="E58" s="16">
         <f>100-E57</f>
         <v>15.677269352622076</v>
@@ -4782,11 +4782,11 @@
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="112">
+      <c r="C59" s="114">
         <f>C56*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D59" s="113"/>
+      <c r="D59" s="115"/>
       <c r="E59" s="16">
         <v>3</v>
       </c>
@@ -4796,17 +4796,24 @@
       <c r="B60" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="112">
+      <c r="C60" s="114">
         <f>C56*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D60" s="113"/>
+      <c r="D60" s="115"/>
       <c r="E60" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A7:F7"/>
@@ -4815,13 +4822,6 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4862,34 +4862,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
@@ -4922,30 +4922,30 @@
       <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="130" t="e">
+      <c r="C6" s="123" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4953,11 +4953,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="130" t="e">
+      <c r="J6" s="123" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="131"/>
+      <c r="K6" s="124"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
@@ -4966,77 +4966,77 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="I7" s="126" t="s">
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="I7" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="str">
+      <c r="A8" s="111" t="str">
         <f>Estimate!A6</f>
         <v>Project:- बेन्डोल हाईट सडक निर्माण</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="I8" s="127" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="I8" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="str">
+      <c r="A9" s="133" t="str">
         <f>Estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="I9" s="127" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="I9" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129" t="s">
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="123" t="s">
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="124" t="s">
+      <c r="K11" s="129" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
@@ -5055,8 +5055,8 @@
       <c r="I12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="123"/>
-      <c r="K12" s="124"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
@@ -5218,13 +5218,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -5238,6 +5231,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5349,21 +5349,21 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="s">
@@ -6621,21 +6621,21 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="s">
@@ -7920,6 +7920,13 @@
     <row r="112" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -7928,13 +7935,6 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8039,21 +8039,21 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="s">
@@ -9370,13 +9370,6 @@
     <row r="113" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="A7:F7"/>
@@ -9385,6 +9378,13 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9393,10 +9393,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9489,21 +9489,21 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="A6" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="s">
@@ -9516,7 +9516,7 @@
       <c r="F7" s="135"/>
       <c r="G7" s="3"/>
       <c r="H7" s="136" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I7" s="136"/>
       <c r="J7" s="136"/>
@@ -9557,11 +9557,11 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
@@ -9577,22 +9577,22 @@
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="76">
         <v>2</v>
       </c>
       <c r="D10" s="78">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="78">
         <v>0.45</v>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="G10" s="79">
         <f>PRODUCT(C10:F10)</f>
-        <v>8.7480000000000011</v>
+        <v>8.64</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
@@ -9626,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="78">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="78">
         <v>4</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="G11" s="79">
         <f>PRODUCT(C11:F11)</f>
-        <v>7.29</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="80"/>
@@ -9661,7 +9661,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="34">
         <f>SUM(G10:G11)</f>
-        <v>16.038</v>
+        <v>15.84</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>49</v>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="J12" s="81">
         <f>G12*I12</f>
-        <v>1036.53594</v>
+        <v>1023.7391999999999</v>
       </c>
       <c r="K12" s="32"/>
       <c r="M12" s="36"/>
@@ -9696,7 +9696,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="81">
         <f>0.13*G12*19284/360</f>
-        <v>111.68328600000001</v>
+        <v>110.30448000000001</v>
       </c>
       <c r="K13" s="32"/>
       <c r="M13" s="36"/>
@@ -9732,7 +9732,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="31"/>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="D16" s="78">
         <f>D11</f>
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E16" s="78">
         <v>4</v>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="G16" s="79">
         <f>PRODUCT(C16:F16)</f>
-        <v>14.58</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
@@ -9796,7 +9796,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="34">
         <f>SUM(G16:G16)</f>
-        <v>14.58</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>49</v>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="J17" s="81">
         <f>G17*I17</f>
-        <v>5894.4023999999999</v>
+        <v>5821.6319999999987</v>
       </c>
       <c r="K17" s="32"/>
       <c r="M17" s="36"/>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="D20" s="78">
         <f>D16</f>
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E20" s="78">
         <f>E11</f>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="G20" s="79">
         <f>PRODUCT(C20:F20)</f>
-        <v>7.29</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="H20" s="80"/>
       <c r="I20" s="80"/>
@@ -9909,7 +9909,7 @@
       <c r="F21" s="83"/>
       <c r="G21" s="53">
         <f>SUM(G20:G20)</f>
-        <v>7.29</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="H21" s="53" t="s">
         <v>49</v>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="J21" s="84">
         <f>G21*I21</f>
-        <v>33253.553699999997</v>
+        <v>32843.015999999996</v>
       </c>
       <c r="K21" s="76"/>
     </row>
@@ -9937,7 +9937,7 @@
       <c r="I22" s="83"/>
       <c r="J22" s="85">
         <f>0.13*G21*(15452.6/5)</f>
-        <v>2928.885804</v>
+        <v>2892.7267199999997</v>
       </c>
       <c r="K22" s="76"/>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="D25" s="78">
         <f>D10</f>
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E25" s="78">
         <f>E10</f>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="G25" s="79">
         <f>PRODUCT(C25:F25)</f>
-        <v>0.82012499999999999</v>
+        <v>0.81</v>
       </c>
       <c r="H25" s="80"/>
       <c r="I25" s="80"/>
@@ -10026,7 +10026,7 @@
       <c r="F26" s="83"/>
       <c r="G26" s="53">
         <f>SUM(G25:G25)</f>
-        <v>0.82012499999999999</v>
+        <v>0.81</v>
       </c>
       <c r="H26" s="53" t="s">
         <v>49</v>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="J26" s="84">
         <f>G26*I26</f>
-        <v>8721.6193124999991</v>
+        <v>8613.9449999999997</v>
       </c>
       <c r="K26" s="76"/>
     </row>
@@ -10054,7 +10054,7 @@
       <c r="I27" s="83"/>
       <c r="J27" s="85">
         <f>0.13*G26*((114907.3+6135.3)/15)</f>
-        <v>860.34054015000015</v>
+        <v>849.71905200000003</v>
       </c>
       <c r="K27" s="76"/>
     </row>
@@ -10085,10 +10085,10 @@
         <v>75</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G29" s="79"/>
       <c r="H29" s="79"/>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="C30" s="82">
         <f>TRUNC(D31/0.15,0)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="83">
         <f>E20-0.1</f>
@@ -10116,11 +10116,11 @@
       </c>
       <c r="F30" s="83">
         <f>PRODUCT(C30:E30)</f>
-        <v>192.59259259259258</v>
+        <v>190.18518518518516</v>
       </c>
       <c r="G30" s="83">
         <f>F30/1000</f>
-        <v>0.19259259259259259</v>
+        <v>0.19018518518518515</v>
       </c>
       <c r="H30" s="83"/>
       <c r="I30" s="83"/>
@@ -10136,7 +10136,7 @@
       </c>
       <c r="D31" s="8">
         <f>D20-0.1</f>
-        <v>12.05</v>
+        <v>11.9</v>
       </c>
       <c r="E31" s="83">
         <f>8*8/162</f>
@@ -10144,11 +10144,11 @@
       </c>
       <c r="F31" s="83">
         <f>PRODUCT(C31:E31)</f>
-        <v>123.77283950617284</v>
+        <v>122.2320987654321</v>
       </c>
       <c r="G31" s="83">
         <f>F31/1000</f>
-        <v>0.12377283950617285</v>
+        <v>0.1222320987654321</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10168,7 +10168,7 @@
       <c r="F32" s="83"/>
       <c r="G32" s="53">
         <f>SUM(G30:G31)</f>
-        <v>0.31636543209876544</v>
+        <v>0.31241728395061724</v>
       </c>
       <c r="H32" s="53" t="s">
         <v>49</v>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="J32" s="84">
         <f>G32*I32</f>
-        <v>39273.604740740739</v>
+        <v>38783.481629629627</v>
       </c>
       <c r="K32" s="76"/>
     </row>
@@ -10196,7 +10196,7 @@
       <c r="I33" s="83"/>
       <c r="J33" s="85">
         <f>0.13*G32*110960</f>
-        <v>4563.5080849382721</v>
+        <v>4506.556837530864</v>
       </c>
       <c r="K33" s="76"/>
     </row>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="D36" s="83">
         <f>D20</f>
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E36" s="83">
         <f>E20</f>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="G36" s="79">
         <f>PRODUCT(C36:F36)</f>
-        <v>7.29</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="H36" s="83"/>
       <c r="I36" s="83"/>
@@ -10271,7 +10271,7 @@
       <c r="F37" s="83"/>
       <c r="G37" s="53">
         <f>SUM(G36:G36)</f>
-        <v>7.29</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="H37" s="53" t="s">
         <v>49</v>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="J37" s="84">
         <f>G37*I37</f>
-        <v>84477.759300000005</v>
+        <v>83434.823999999993</v>
       </c>
       <c r="K37" s="76"/>
     </row>
@@ -10299,7 +10299,7 @@
       <c r="I38" s="83"/>
       <c r="J38" s="85">
         <f>0.13*G37*((128662.2+6685.5)/15)</f>
-        <v>8551.267686000001</v>
+        <v>8445.6964800000005</v>
       </c>
       <c r="K38" s="76"/>
     </row>
@@ -10321,7 +10321,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40" s="108"/>
       <c r="D40" s="79"/>
@@ -10336,14 +10336,14 @@
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="76">
         <v>2</v>
       </c>
       <c r="D41" s="78">
         <f>D10</f>
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E41" s="78">
         <v>0.45</v>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="G41" s="79">
         <f>PRODUCT(C41:F41)</f>
-        <v>13.668750000000001</v>
+        <v>13.5</v>
       </c>
       <c r="H41" s="80"/>
       <c r="I41" s="80"/>
@@ -10379,7 +10379,7 @@
       <c r="F42" s="83"/>
       <c r="G42" s="53">
         <f>SUM(G41:G41)</f>
-        <v>13.668750000000001</v>
+        <v>13.5</v>
       </c>
       <c r="H42" s="53" t="s">
         <v>49</v>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="J42" s="84">
         <f>G42*I42</f>
-        <v>138241.91025000002</v>
+        <v>136535.22</v>
       </c>
       <c r="K42" s="76"/>
     </row>
@@ -10407,7 +10407,7 @@
       <c r="I43" s="83"/>
       <c r="J43" s="85">
         <f>0.13*G42*((28040.8)/5)</f>
-        <v>9965.3498100000015</v>
+        <v>9842.3207999999995</v>
       </c>
       <c r="K43" s="76"/>
     </row>
@@ -10429,7 +10429,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C45" s="30">
         <v>1</v>
@@ -10445,11 +10445,11 @@
         <v>34</v>
       </c>
       <c r="I45" s="34">
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="J45" s="59">
         <f>G45*I45</f>
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="K45" s="32"/>
       <c r="M45" s="36"/>
@@ -10480,109 +10480,123 @@
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
-      <c r="B47" s="87" t="s">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>9</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="30">
+        <v>1</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="59">
+        <f t="shared" ref="G47" si="1">PRODUCT(C47:F47)</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="34">
+        <v>500</v>
+      </c>
+      <c r="J47" s="59">
+        <f>G47*I47</f>
+        <v>500</v>
+      </c>
+      <c r="K47" s="32"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="32"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="80"/>
+      <c r="B49" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81">
-        <f>SUM(J10:J45)</f>
-        <v>338380.42085432902</v>
-      </c>
-      <c r="K47" s="76"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="102"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="98"/>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
-      <c r="B49" s="40" t="s">
+      <c r="C49" s="88"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81">
+        <f>SUM(J10:J47)</f>
+        <v>349203.18219916045</v>
+      </c>
+      <c r="K49" s="76"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="102"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="98"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="91"/>
+      <c r="B51" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="137">
-        <f>J47</f>
-        <v>338380.42085432902</v>
-      </c>
-      <c r="D49" s="137"/>
-      <c r="E49" s="79">
+      <c r="C51" s="137">
+        <f>J49</f>
+        <v>349203.18219916045</v>
+      </c>
+      <c r="D51" s="137"/>
+      <c r="E51" s="79">
         <v>100</v>
       </c>
-      <c r="F49" s="92"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="96"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="138">
-        <v>300000</v>
-      </c>
-      <c r="D50" s="138"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="90"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="97"/>
-      <c r="B51" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="138">
-        <f>C50-C53-C54</f>
-        <v>285000</v>
-      </c>
-      <c r="D51" s="138"/>
-      <c r="E51" s="79">
-        <f>C51/C49*100</f>
-        <v>84.224731230147327</v>
-      </c>
-      <c r="F51" s="90"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="90"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="96"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="97"/>
       <c r="B52" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="137">
-        <f>C49-C51</f>
-        <v>53380.420854329015</v>
-      </c>
-      <c r="D52" s="137"/>
-      <c r="E52" s="79">
-        <f>100-E51</f>
-        <v>15.775268769852673</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C52" s="138">
+        <v>300000</v>
+      </c>
+      <c r="D52" s="138"/>
+      <c r="E52" s="79"/>
       <c r="F52" s="90"/>
       <c r="G52" s="89"/>
       <c r="H52" s="89"/>
@@ -10593,15 +10607,16 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="97"/>
       <c r="B53" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="137">
-        <f>C50*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D53" s="137"/>
+        <v>36</v>
+      </c>
+      <c r="C53" s="138">
+        <f>C52-C55-C56</f>
+        <v>285000</v>
+      </c>
+      <c r="D53" s="138"/>
       <c r="E53" s="79">
-        <v>3</v>
+        <f>C53/C51*100</f>
+        <v>81.614376537226534</v>
       </c>
       <c r="F53" s="90"/>
       <c r="G53" s="89"/>
@@ -10613,15 +10628,16 @@
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="97"/>
       <c r="B54" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="137">
-        <f>C50*0.02</f>
-        <v>6000</v>
+        <f>C51-C53</f>
+        <v>64203.182199160452</v>
       </c>
       <c r="D54" s="137"/>
       <c r="E54" s="79">
-        <v>2</v>
+        <f>100-E53</f>
+        <v>18.385623462773466</v>
       </c>
       <c r="F54" s="90"/>
       <c r="G54" s="89"/>
@@ -10630,21 +10646,59 @@
       <c r="J54" s="89"/>
       <c r="K54" s="90"/>
     </row>
-    <row r="55" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="98"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="98"/>
-    </row>
-    <row r="56" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="97"/>
+      <c r="B55" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="137">
+        <f>C52*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D55" s="137"/>
+      <c r="E55" s="79">
+        <v>3</v>
+      </c>
+      <c r="F55" s="90"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="90"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="97"/>
+      <c r="B56" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="137">
+        <f>C52*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D56" s="137"/>
+      <c r="E56" s="79">
+        <v>2</v>
+      </c>
+      <c r="F56" s="90"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="90"/>
+    </row>
+    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+    </row>
     <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -10699,8 +10753,18 @@
     <row r="109" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="110" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="111" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -10708,22 +10772,14 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
   </headerFooter>
 </worksheet>
 </file>